--- a/Survey_Data.xlsx
+++ b/Survey_Data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E6AD4-24B1-49F5-B03E-B727933324D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8B7BB-6D05-40D8-A498-8E391B4308C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Meta-Data" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14873" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14947" uniqueCount="209">
   <si>
     <t>Gender</t>
   </si>
@@ -560,12 +561,114 @@
   <si>
     <t>2, 1, 3</t>
   </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Given Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Wi-fi Access </t>
+  </si>
+  <si>
+    <t>home desktop/laptop access</t>
+  </si>
+  <si>
+    <t>Device use for learning</t>
+  </si>
+  <si>
+    <t>Self Digital knowlwedge and skills rating</t>
+  </si>
+  <si>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Question 16</t>
+  </si>
+  <si>
+    <t>Question 17</t>
+  </si>
+  <si>
+    <t>Question 18</t>
+  </si>
+  <si>
+    <t>Question 19</t>
+  </si>
+  <si>
+    <t>Question 20</t>
+  </si>
+  <si>
+    <t>Question 21</t>
+  </si>
+  <si>
+    <t>Question 22</t>
+  </si>
+  <si>
+    <t>Question 23</t>
+  </si>
+  <si>
+    <t>Question 24</t>
+  </si>
+  <si>
+    <t>Question 25</t>
+  </si>
+  <si>
+    <t>Question 26</t>
+  </si>
+  <si>
+    <t>Question 27</t>
+  </si>
+  <si>
+    <t>Question 28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,8 +689,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,8 +717,20 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -608,18 +738,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -755,39 +899,39 @@
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Gender" dataDxfId="35"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mode of study" dataDxfId="34"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year of study" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Do you have reliable access to wi-fi at home?" dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Do you have a reliable desktop/laptop computer at home?" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home Wi-fi Access " dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="home desktop/laptop access" dataDxfId="31"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Is it solely for your use?" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="For learning online at home, which of these devices do you use:  _x000a_(1) Mobile phone, _x000a_(2) Tablet, _x000a_(3) Desktop/laptop computer, _x000a_(4) Others: (specify)_x000a_Put down the number of devices that you use. _x000a_..." dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="How would you rate your digital knowledge and skills? (e.g. Your ability to learn and use software independently)_x000a_&quot;1&quot; = Very Poor, _x000a_&quot;5&quot; = Average, _x000a_&quot;10&quot; = Excellent" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="In general, my instructors are comfortable or familiar with the required technologies or applications." dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="I am comfortable or familiar with the required technologies or applications." dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="I am clear which technologies and applications I am required to use." dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="I have no difficulty accessing reliable communication software/tools (e.g., MS Teams, Zoom, Google Hangout)." dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="I can always access specialized software for my study (e.g., Adobe products, statistical packages)." dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="I can always access library resources." dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="I can always find time to participate in synchronous classes (e.g., live-streaming lectures or video conferencing at a set time)." dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="I am clear about my course/assignment requirements." dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="I can always find time for class meetings and schedules." dataDxfId="19"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="I prefer face-to-face learning." dataDxfId="18"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="I feel that my course lessons or activities have been well delivered in the online environment." dataDxfId="17"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="I can always focus on or pay attention to remote instructions or activities." dataDxfId="16"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="In general, my instructors are available or responsive." dataDxfId="15"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="I am motivated / I desire to complete my coursework." dataDxfId="14"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="The online learning materials (Zoom/Team/video) facilitated my learning." dataDxfId="13"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Methods of adjusted/modified assessment in this transition period are appropriate for evaluating my achievement of the intended learning outcomes." dataDxfId="12"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="The criteria used for adjusted/modified assessment marking were clear to me." dataDxfId="11"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="The adjusted/modified assessment was effective in helping me learn." dataDxfId="10" dataCellStyle="Neutral"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="The instructors in the programme made efforts to enhance my learning." dataDxfId="9"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="During this transition period of the programme, students’ suggestions and comments were listened to and acted upon in an appropriate way." dataDxfId="8"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="I am concerned about my grades/performing well in class." dataDxfId="7"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="I am concerned about the changes to the grading structures (e.g., pass/fail). " dataDxfId="6"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="I am concerned about possible delays in graduating/completing my programme." dataDxfId="5"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="I am concerned about my instructors not using Moodle/Canvas." dataDxfId="4"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="I am concerned about my instructors using a tool that is not supported by the institution." dataDxfId="3"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="I am concerned about my instructors not recording online lessons delivered and making the videos accessible to students thereafter." dataDxfId="2"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Overall, I am satisfied with the programme arrangement during this transition period" dataDxfId="1"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Overall, I am satisfied with the online learning in the last three months." dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Device use for learning" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Self Digital knowlwedge and skills rating" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Question 1" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Question 2" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Question 3" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Question 4" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Question 5" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Question 6" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Question 7" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Question 8" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Question 9" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Question 10" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Question 11" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Question 12" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Question 13" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Question 14" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Question 15" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Question 16" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Question 17" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Question 18" dataDxfId="10" dataCellStyle="Neutral"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Question 19" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Question 20" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Question 21" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Question 22" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="Question 23" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="Question 24" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Question 25" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="Question 26" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Question 27" dataDxfId="1"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Question 28" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,38 +1245,14 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="166.85546875" customWidth="1"/>
-    <col min="8" max="8" width="101.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="94.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="91" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="116.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="88.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="70.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="140.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="66.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="131.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="55.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="67.42578125" customWidth="1"/>
-    <col min="31" max="31" width="71.140625" customWidth="1"/>
-    <col min="32" max="32" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="78.7109375" customWidth="1"/>
-    <col min="34" max="34" width="123.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="80.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="66.85546875" customWidth="1"/>
+    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="25" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="36" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1146,103 +1266,103 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>182</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>193</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>25</v>
+        <v>197</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>198</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
@@ -47889,4 +48009,319 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7999F4-FF5A-425B-9683-C8E781363DD9}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Survey_Data.xlsx
+++ b/Survey_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F8B7BB-6D05-40D8-A498-8E391B4308C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14191CB1-8EF1-4E5C-B722-432D71D93EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14947" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14947" uniqueCount="216">
   <si>
     <t>Gender</t>
   </si>
@@ -663,6 +663,27 @@
   <si>
     <t>Question 28</t>
   </si>
+  <si>
+    <t>Mode_of_study</t>
+  </si>
+  <si>
+    <t>Year_of_study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home_wi-fi_access </t>
+  </si>
+  <si>
+    <t>home_desktop/laptop_access</t>
+  </si>
+  <si>
+    <t>solely_for_your_use?</t>
+  </si>
+  <si>
+    <t>Device_use_for_learning</t>
+  </si>
+  <si>
+    <t>Self_Digital_knowlwedge_and_skills_rating</t>
+  </si>
 </sst>
 </file>
 
@@ -897,13 +918,13 @@
   <autoFilter ref="A1:AJ426" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="36">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Gender" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mode of study" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year of study" dataDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home Wi-fi Access " dataDxfId="32"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="home desktop/laptop access" dataDxfId="31"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Is it solely for your use?" dataDxfId="30"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Device use for learning" dataDxfId="29"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Self Digital knowlwedge and skills rating" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Mode_of_study" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Year_of_study" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Home_wi-fi_access " dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="home_desktop/laptop_access" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="solely_for_your_use?" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Device_use_for_learning" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Self_Digital_knowlwedge_and_skills_rating" dataDxfId="28"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Question 1" dataDxfId="27"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Question 2" dataDxfId="26"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Question 3" dataDxfId="25"/>
@@ -1237,7 +1258,7 @@
   <dimension ref="A1:AJ426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1260,25 +1281,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>214</v>
       </c>
       <c r="H1" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="I1" t="s">
         <v>181</v>
@@ -48016,7 +48037,7 @@
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
